--- a/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4586</v>
+        <v>4179</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15146</v>
+        <v>14747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02768552633562782</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0143825087114288</v>
+        <v>0.01310579819046384</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0475040207858809</v>
+        <v>0.04625273133210903</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>10023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6392</v>
+        <v>5990</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15310</v>
+        <v>15316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03171369537928267</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02022302710507337</v>
+        <v>0.01895069516316254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04844037258473342</v>
+        <v>0.04846041049461008</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -783,19 +783,19 @@
         <v>18851</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12941</v>
+        <v>13159</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26810</v>
+        <v>27437</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02969077727074224</v>
+        <v>0.02969077727074225</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02038236503184149</v>
+        <v>0.02072554266682954</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04222715000833292</v>
+        <v>0.04321454779687846</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>310018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303699</v>
+        <v>304098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>314259</v>
+        <v>314666</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9723144736643722</v>
+        <v>0.9723144736643724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9524959792141192</v>
+        <v>0.9537472686678911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9856174912885713</v>
+        <v>0.9868942018095362</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>518</v>
@@ -833,19 +833,19 @@
         <v>306038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300751</v>
+        <v>300745</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309669</v>
+        <v>310071</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9682863046207172</v>
+        <v>0.9682863046207174</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9515596274152659</v>
+        <v>0.9515395895053896</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9797769728949266</v>
+        <v>0.9810493048368373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>838</v>
@@ -854,19 +854,19 @@
         <v>616055</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>608096</v>
+        <v>607469</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>621965</v>
+        <v>621747</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9703092227292578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.957772849991667</v>
+        <v>0.9567854522031216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9796176349681586</v>
+        <v>0.9792744573331705</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>25073</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16578</v>
+        <v>15036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39217</v>
+        <v>37361</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04733716011927862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03129994132363319</v>
+        <v>0.02838783528325143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07404165091155204</v>
+        <v>0.07053739143270914</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -979,19 +979,19 @@
         <v>40479</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31049</v>
+        <v>31423</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52303</v>
+        <v>52450</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07416328391633847</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05688680644917286</v>
+        <v>0.05757137770484091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09582740909423507</v>
+        <v>0.0960961718764943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -1000,19 +1000,19 @@
         <v>65552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52205</v>
+        <v>52564</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81694</v>
+        <v>82269</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06095164124377404</v>
+        <v>0.06095164124377405</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04854158203357915</v>
+        <v>0.04887529817402617</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07596083893961397</v>
+        <v>0.07649598739451507</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>504587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490443</v>
+        <v>492299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>513082</v>
+        <v>514624</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9526628398807214</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9259583490884478</v>
+        <v>0.9294626085672909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9687000586763662</v>
+        <v>0.9716121647167486</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>657</v>
@@ -1050,19 +1050,19 @@
         <v>505330</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>493506</v>
+        <v>493359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>514760</v>
+        <v>514386</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9258367160836615</v>
+        <v>0.9258367160836614</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9041725909057647</v>
+        <v>0.9039038281235057</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.943113193550827</v>
+        <v>0.942428622295159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1017</v>
@@ -1071,19 +1071,19 @@
         <v>1009917</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>993775</v>
+        <v>993200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1023264</v>
+        <v>1022905</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9390483587562261</v>
+        <v>0.9390483587562259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9240391610603861</v>
+        <v>0.9235040126054851</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9514584179664208</v>
+        <v>0.9511247018259743</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>31147</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22878</v>
+        <v>23654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41379</v>
+        <v>41539</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09856894046583345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07240132017875139</v>
+        <v>0.07485667383287908</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1309480819650282</v>
+        <v>0.131454514926948</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -1196,19 +1196,19 @@
         <v>60252</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49489</v>
+        <v>50312</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70642</v>
+        <v>71855</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1690659939679376</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1388664802760426</v>
+        <v>0.1411739049871669</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1982213922931286</v>
+        <v>0.2016235394656647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -1217,19 +1217,19 @@
         <v>91399</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77569</v>
+        <v>78085</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106217</v>
+        <v>104743</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1359347602208391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1153662907910954</v>
+        <v>0.1161337744279738</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1579725358369774</v>
+        <v>0.1557805020976985</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>284846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>274614</v>
+        <v>274454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>293115</v>
+        <v>292339</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9014310595341666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8690519180349721</v>
+        <v>0.868545485073052</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9275986798212487</v>
+        <v>0.9251433261671209</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>424</v>
@@ -1267,19 +1267,19 @@
         <v>296129</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>285739</v>
+        <v>284526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306892</v>
+        <v>306069</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8309340060320625</v>
+        <v>0.8309340060320624</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8017786077068713</v>
+        <v>0.7983764605343352</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8611335197239578</v>
+        <v>0.8588260950128337</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>739</v>
@@ -1288,19 +1288,19 @@
         <v>580976</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>566158</v>
+        <v>567632</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>594806</v>
+        <v>594290</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8640652397791609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8420274641630225</v>
+        <v>0.8442194979023014</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8846337092089047</v>
+        <v>0.8838662255720262</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>17053</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10007</v>
+        <v>9887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27491</v>
+        <v>27190</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04570060372403374</v>
+        <v>0.04570060372403373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02681849674126463</v>
+        <v>0.02649620747767131</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07367378720485726</v>
+        <v>0.07286829320123213</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1413,19 +1413,19 @@
         <v>32267</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24739</v>
+        <v>24668</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42290</v>
+        <v>42298</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07646881295493489</v>
+        <v>0.07646881295493492</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05862914852541972</v>
+        <v>0.05845983092733353</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1002216421286066</v>
+        <v>0.1002425832609733</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -1434,19 +1434,19 @@
         <v>49320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38392</v>
+        <v>38100</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62537</v>
+        <v>61780</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06202922723393276</v>
+        <v>0.06202922723393275</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04828488993903364</v>
+        <v>0.0479183332359252</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07865195612015681</v>
+        <v>0.07770023867203336</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>356092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>345654</v>
+        <v>345955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>363138</v>
+        <v>363258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9542993962759663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9263262127951428</v>
+        <v>0.927131706798768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9731815032587353</v>
+        <v>0.9735037925223288</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>538</v>
@@ -1484,19 +1484,19 @@
         <v>389694</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>379671</v>
+        <v>379663</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397222</v>
+        <v>397293</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9235311870450651</v>
+        <v>0.9235311870450652</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8997783578713933</v>
+        <v>0.8997574167390269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9413708514745802</v>
+        <v>0.9415401690726666</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>813</v>
@@ -1505,19 +1505,19 @@
         <v>745787</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>732570</v>
+        <v>733327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>756715</v>
+        <v>757007</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9379707727660673</v>
+        <v>0.9379707727660671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9213480438798434</v>
+        <v>0.9222997613279668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9517151100609663</v>
+        <v>0.9520816667640748</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>7352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4063</v>
+        <v>4006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12754</v>
+        <v>12308</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03574936524419844</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01975562996138565</v>
+        <v>0.01947736301606445</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06201449522074426</v>
+        <v>0.05984677390896321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1630,19 +1630,19 @@
         <v>19328</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14654</v>
+        <v>14626</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25904</v>
+        <v>26150</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08521250206870933</v>
+        <v>0.0852125020687093</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06460468427374591</v>
+        <v>0.06448320268121645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1142043621043238</v>
+        <v>0.1152872157082799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -1651,19 +1651,19 @@
         <v>26681</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20416</v>
+        <v>19984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35443</v>
+        <v>33975</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06169087565303633</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04720483905004212</v>
+        <v>0.04620702201702929</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08195162706235787</v>
+        <v>0.07855623284979263</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>198313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192911</v>
+        <v>193357</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201602</v>
+        <v>201659</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9642506347558013</v>
+        <v>0.9642506347558016</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9379855047792556</v>
+        <v>0.9401532260910367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9802443700386145</v>
+        <v>0.9805226369839356</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>445</v>
@@ -1701,19 +1701,19 @@
         <v>207495</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200919</v>
+        <v>200673</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212169</v>
+        <v>212197</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9147874979312907</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8857956378956766</v>
+        <v>0.8847127842917202</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9353953157262542</v>
+        <v>0.9355167973187835</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>712</v>
@@ -1722,19 +1722,19 @@
         <v>405807</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>397045</v>
+        <v>398513</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412072</v>
+        <v>412504</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9383091243469636</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9180483729376419</v>
+        <v>0.9214437671502071</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9527951609499579</v>
+        <v>0.9537929779829705</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>36413</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28119</v>
+        <v>28044</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45751</v>
+        <v>46242</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1345118390939514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1038739674492173</v>
+        <v>0.1035956176357759</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1690046629813622</v>
+        <v>0.1708182470635693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>119</v>
@@ -1847,19 +1847,19 @@
         <v>51662</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42503</v>
+        <v>43543</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60812</v>
+        <v>61616</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1963614013591249</v>
+        <v>0.1963614013591248</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1615476109881094</v>
+        <v>0.165499635503011</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2311385831477034</v>
+        <v>0.2341922322711998</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>182</v>
@@ -1868,19 +1868,19 @@
         <v>88076</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74836</v>
+        <v>76592</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100964</v>
+        <v>102878</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1649958822904393</v>
+        <v>0.1649958822904394</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1401926055689907</v>
+        <v>0.1434833006252594</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1891400925353621</v>
+        <v>0.1927248578842169</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>234294</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224956</v>
+        <v>224465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>242588</v>
+        <v>242663</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8654881609060485</v>
+        <v>0.8654881609060486</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8309953370186379</v>
+        <v>0.8291817529364307</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8961260325507825</v>
+        <v>0.8964043823642242</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -1918,19 +1918,19 @@
         <v>211437</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>202287</v>
+        <v>201483</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>220596</v>
+        <v>219556</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8036385986408752</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7688614168522967</v>
+        <v>0.7658077677287999</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8384523890118905</v>
+        <v>0.8345003644969891</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>648</v>
@@ -1939,19 +1939,19 @@
         <v>445730</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>432842</v>
+        <v>430928</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>458970</v>
+        <v>457214</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8350041177095607</v>
+        <v>0.8350041177095606</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.810859907464638</v>
+        <v>0.8072751421157831</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8598073944310094</v>
+        <v>0.8565166993747404</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>23763</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15522</v>
+        <v>15914</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34745</v>
+        <v>35840</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03314387729796685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.021650293054518</v>
+        <v>0.02219648401133368</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04846202296572051</v>
+        <v>0.04999011800041261</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -2064,19 +2064,19 @@
         <v>67334</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55169</v>
+        <v>54344</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82991</v>
+        <v>81630</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.087366815604161</v>
+        <v>0.08736681560416104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07158291142105187</v>
+        <v>0.07051176748666023</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1076816127365373</v>
+        <v>0.1059154491505151</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>115</v>
@@ -2085,19 +2085,19 @@
         <v>91097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76560</v>
+        <v>74621</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109548</v>
+        <v>110040</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06123501211291801</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05146383468255928</v>
+        <v>0.05015993298215102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07363789365623295</v>
+        <v>0.07396882005671662</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>693187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>682205</v>
+        <v>681110</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>701428</v>
+        <v>701036</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9668561227020332</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9515379770342797</v>
+        <v>0.9500098819995872</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.978349706945482</v>
+        <v>0.9778035159886663</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>866</v>
@@ -2135,19 +2135,19 @@
         <v>703372</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>687715</v>
+        <v>689076</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>715537</v>
+        <v>716362</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.912633184395839</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.892318387263463</v>
+        <v>0.894084550849485</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9284170885789481</v>
+        <v>0.9294882325133399</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1439</v>
@@ -2156,19 +2156,19 @@
         <v>1396558</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1378107</v>
+        <v>1377615</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1411095</v>
+        <v>1413034</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9387649878870821</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9263621063437671</v>
+        <v>0.9260311799432833</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9485361653174409</v>
+        <v>0.9498400670178491</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>14101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8563</v>
+        <v>8134</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23031</v>
+        <v>22427</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01766856291881371</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01072992194421213</v>
+        <v>0.01019246348610916</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02885882036595994</v>
+        <v>0.02810185545831934</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -2281,19 +2281,19 @@
         <v>36988</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27757</v>
+        <v>27999</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47502</v>
+        <v>47719</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04453128228020024</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03341813480607499</v>
+        <v>0.03370907353198865</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05718901343606771</v>
+        <v>0.05745037662229192</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -2302,19 +2302,19 @@
         <v>51089</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38893</v>
+        <v>39606</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64128</v>
+        <v>63623</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03136824642939194</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02387990954199662</v>
+        <v>0.02431796849319613</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.039374388339013</v>
+        <v>0.03906415755231328</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>783971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>775041</v>
+        <v>775645</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>789509</v>
+        <v>789938</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9823314370811861</v>
+        <v>0.9823314370811862</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9711411796340402</v>
+        <v>0.9718981445416804</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9892700780557879</v>
+        <v>0.9898075365138906</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1007</v>
@@ -2352,19 +2352,19 @@
         <v>793621</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>783107</v>
+        <v>782890</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>802852</v>
+        <v>802610</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9554687177197997</v>
+        <v>0.9554687177197998</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9428109865639319</v>
+        <v>0.9425496233777081</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9665818651939249</v>
+        <v>0.9662909264680114</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1753</v>
@@ -2373,19 +2373,19 @@
         <v>1577592</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1564553</v>
+        <v>1565058</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1589788</v>
+        <v>1589075</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9686317535706079</v>
+        <v>0.968631753570608</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9606256116609871</v>
+        <v>0.9609358424476867</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9761200904580035</v>
+        <v>0.975682031506804</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>163729</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>142941</v>
+        <v>142306</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>187397</v>
+        <v>188850</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04639482372672283</v>
+        <v>0.04639482372672282</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.040504373267947</v>
+        <v>0.04032425447296011</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05310143996937209</v>
+        <v>0.05351329065679152</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>563</v>
@@ -2498,19 +2498,19 @@
         <v>318334</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>288679</v>
+        <v>291763</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>344456</v>
+        <v>346731</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08531113403839566</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07736388730294527</v>
+        <v>0.07819012130050507</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09231159527093333</v>
+        <v>0.09292130700815769</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>771</v>
@@ -2519,19 +2519,19 @@
         <v>482063</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>448994</v>
+        <v>447748</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>518839</v>
+        <v>517036</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06639544731081035</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06184074404569259</v>
+        <v>0.06166918221837801</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07146067979480912</v>
+        <v>0.0712123005197273</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3365308</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3341640</v>
+        <v>3340187</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3386096</v>
+        <v>3386731</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9536051762732772</v>
+        <v>0.953605176273277</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9468985600306278</v>
+        <v>0.9464867093432084</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9594956267320527</v>
+        <v>0.9596757455270402</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4795</v>
@@ -2569,19 +2569,19 @@
         <v>3413116</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3386994</v>
+        <v>3384719</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3442771</v>
+        <v>3439687</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9146888659616045</v>
+        <v>0.9146888659616044</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.907688404729067</v>
+        <v>0.9070786929918424</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9226361126970547</v>
+        <v>0.921809878699495</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7959</v>
@@ -2590,19 +2590,19 @@
         <v>6778424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6741648</v>
+        <v>6743451</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6811493</v>
+        <v>6812739</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9336045526891896</v>
+        <v>0.9336045526891897</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9285393202051911</v>
+        <v>0.9287876994802733</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9381592559543073</v>
+        <v>0.9383308177816225</v>
       </c>
     </row>
     <row r="30">
